--- a/trunk/Document/Design/SRS + User Requirement/GiangPNT/Usecase_Table.xlsx
+++ b/trunk/Document/Design/SRS + User Requirement/GiangPNT/Usecase_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Number</t>
   </si>
@@ -310,6 +310,78 @@
   </si>
   <si>
     <t>General_UC06</t>
+  </si>
+  <si>
+    <t>Project Eye_UC01</t>
+  </si>
+  <si>
+    <t>Project Eye_UC02</t>
+  </si>
+  <si>
+    <t>Project Eye_UC03</t>
+  </si>
+  <si>
+    <t>Manage Module Use Case</t>
+  </si>
+  <si>
+    <t>Edit Project Use Case</t>
+  </si>
+  <si>
+    <t>Create new Project Use Case</t>
+  </si>
+  <si>
+    <t>Planner_UC01</t>
+  </si>
+  <si>
+    <t>Planner_UC02</t>
+  </si>
+  <si>
+    <t>Planner_UC03</t>
+  </si>
+  <si>
+    <t>Planner_UC04</t>
+  </si>
+  <si>
+    <t>Planner_UC05</t>
+  </si>
+  <si>
+    <t>Dashboard _UC01</t>
+  </si>
+  <si>
+    <t>Dashboard _UC02</t>
+  </si>
+  <si>
+    <t>Update timesheet Use Case</t>
+  </si>
+  <si>
+    <t>Timesheet_UC05</t>
+  </si>
+  <si>
+    <t>Report_UC01</t>
+  </si>
+  <si>
+    <t>Filter Task Use Case</t>
+  </si>
+  <si>
+    <t>Add Task Use Case</t>
+  </si>
+  <si>
+    <t>Update Task Use Case</t>
+  </si>
+  <si>
+    <t>Delete Task Use Case</t>
+  </si>
+  <si>
+    <t>Import Task Use Case</t>
+  </si>
+  <si>
+    <t>Filter Project Use Case</t>
+  </si>
+  <si>
+    <t>Export Dashboard Use Case</t>
+  </si>
+  <si>
+    <t>Print Report Use Case</t>
   </si>
 </sst>
 </file>
@@ -656,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,10 +921,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75">
@@ -860,10 +932,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -871,10 +943,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
@@ -882,10 +954,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
@@ -893,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -904,10 +976,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
@@ -915,10 +987,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75">
@@ -926,10 +998,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -937,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -948,10 +1020,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75">
@@ -959,10 +1031,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75">
@@ -970,10 +1042,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75">
@@ -981,10 +1053,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75">
@@ -992,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75">
@@ -1003,10 +1075,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75">
@@ -1014,10 +1086,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75">
@@ -1025,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
@@ -1036,10 +1108,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75">
@@ -1047,10 +1119,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75">
@@ -1058,10 +1130,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75">
@@ -1069,10 +1141,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75">
@@ -1080,43 +1152,43 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>65</v>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>82</v>
+      <c r="B40" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>83</v>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75">
@@ -1124,10 +1196,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
@@ -1135,10 +1207,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75">
@@ -1146,10 +1218,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
@@ -1157,10 +1229,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
@@ -1168,10 +1240,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75">
@@ -1179,10 +1251,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75">
@@ -1190,10 +1262,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75">
@@ -1201,20 +1273,143 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="4"/>
+    <row r="54" spans="1:3" ht="15.75">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
